--- a/Document/学习计划进度.xlsx
+++ b/Document/学习计划进度.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LearningBigData\LearningDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LearningBigData\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC82616-5DE4-4D17-923F-1301E4AC6086}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DBC54D-5D02-4AF9-B15F-D761E3B43155}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="大数据线下课程" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="144">
   <si>
     <t>阶段</t>
   </si>
@@ -43,15 +43,15 @@
   </si>
   <si>
     <t>Maven</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Day01</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Day02</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -68,7 +68,7 @@
       </rPr>
       <t>高级</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -84,31 +84,31 @@
       </rPr>
       <t>01</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Day03</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Day04</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Day05</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Day06</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Day07</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>HA</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -124,7 +124,7 @@
       </rPr>
       <t>7</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -140,7 +140,7 @@
       </rPr>
       <t>8</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -156,79 +156,79 @@
       </rPr>
       <t>9</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Day09</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Day10</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Day11</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Day12</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Day13</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>离线分析项目</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>离线分析框架</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>实时分析框架</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>面试大保健</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>17_Flink</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>18_在线教育项目2.0</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>19_面试大保健</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>16_实时数仓项目</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>15_Spark</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>14_Scala</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>实时分析项目</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>13_离线数仓项目-数据仓库搭建</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>13_离线数仓项目-电商采集平台项目</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -254,7 +254,7 @@
       </rPr>
       <t>Maven</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -280,7 +280,7 @@
       </rPr>
       <t>Linux</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -317,7 +317,7 @@
       </rPr>
       <t>高级</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -354,7 +354,7 @@
       </rPr>
       <t>脚本</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -380,7 +380,7 @@
       </rPr>
       <t>Hadoop</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -406,7 +406,7 @@
       </rPr>
       <t>Zookeeper</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -432,7 +432,7 @@
       </rPr>
       <t>HA</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -458,7 +458,7 @@
       </rPr>
       <t>Hive</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -484,7 +484,7 @@
       </rPr>
       <t>Flume</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -510,7 +510,7 @@
       </rPr>
       <t>Kafka</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -536,7 +536,7 @@
       </rPr>
       <t>Hbase</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -562,50 +562,50 @@
       </rPr>
       <t>Azkaban</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>面试突击</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>开始时间</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>结束时间</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>阶段学习计划天数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>实际天数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>模块天数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>奖励品</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>计划学习天数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Docker</t>
   </si>
   <si>
     <t>谷粒商城项目</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>基于阿里云搭建实时数据仓库项目</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -634,7 +634,7 @@
       </rPr>
       <t>项目实战）</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -673,81 +673,15 @@
       </rPr>
       <t>高级）</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>总天数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>键盘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mpjo75</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>组装启用</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>超大鼠标垫启用</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>订制树脂手托一个</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>订制客制化编制数据线一根</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>喜欢的轴体买一套
-（35g静音轴/45g线性轴）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>96</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>客制化金属套件一个
-（公司用）</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -786,285 +720,281 @@
       </rPr>
       <t>高级）</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>juc</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>分布式基础篇</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>分布式高级篇</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>高可用集群篇</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>JavaWeb增强</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>总视频时长</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvme固态硬盘512GB</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>8h</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>4h</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>学习时长</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>4:00am~8:00am
 2:00pm~6:00pm</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>8:00am~12:00am</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>4:00am~8:00am</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>学习时间</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>不准加班</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>1:00pm~7:00pm
 可加班6小时</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>8:30am~11:30am
 1:30pm~8:30pm</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>工作时间</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>6h+1h</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>9h</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>睡眠时间</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>10:00pm</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>睡觉时间</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>4:00am</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>7:00am</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>起床时间</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>洗澡</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>9:00pm~9:30pm</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>划船机
 60min</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>运动</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>7:30pm~8:50pm</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>鸡蛋+面包+水果</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>晚饭</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>午休</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>鸡胸肉+炒青菜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>午饭</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>早饭</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>换衣服</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>换内裤、袜子</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>衣物</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>保湿</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>护理</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>洗脸、刷牙、刮胡子</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>洗漱</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>周日</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>周六</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>周五</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>周四</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>周三</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>周二</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>周一</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>项目</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>时间</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>60min~90min</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>0min</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>早起奖励零食
 牛奶咖啡
 火腿肠+面包+番茄酱</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>鸡胸午餐肉+水果+酸辣粉</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>水饺/面条/食堂</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>水饺/杂粮米饭/面条/酸辣粉/部队火锅</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>React</t>
   </si>
   <si>
     <t>8:00pm~8:15pm</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>8:15pm~8:30pm</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>4:00am~4:15am</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>11:30am~12:00pm</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>12:00pm~13:30pm</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>6:00pm~6:15pm</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>教程时长
 小时</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1082,7 +1012,7 @@
       </rPr>
       <t>（前端线上课程）</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1100,14 +1030,14 @@
       </rPr>
       <t>（前端线上课程）</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>VUE</t>
   </si>
   <si>
     <t>大数据增强</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1123,7 +1053,7 @@
       </rPr>
       <t>8s</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1162,7 +1092,7 @@
       </rPr>
       <t>高级）</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1179,7 +1109,7 @@
       </rPr>
       <t>使用与多线程</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1207,7 +1137,44 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超大鼠标垫启用
+科技星球键帽</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>客制化编制数据线一根</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>nvme</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>固态硬盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>512GB</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1218,11 +1185,18 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1406,11 +1380,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1418,106 +1392,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2438,8 +2415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2447,7 +2424,9 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="42.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="32" style="2" customWidth="1"/>
-    <col min="4" max="10" width="9" style="2"/>
+    <col min="4" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9" style="2"/>
     <col min="11" max="11" width="19.75" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
@@ -2463,7 +2442,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>57</v>
@@ -2508,14 +2487,17 @@
         <f>ROUNDUP(SUM(E2:E6),0)</f>
         <v>12</v>
       </c>
+      <c r="G2" s="37">
+        <v>44151</v>
+      </c>
       <c r="J2" s="26"/>
       <c r="K2" s="27" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="26"/>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="28" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -2534,7 +2516,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="26"/>
-      <c r="B4" s="28"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
@@ -2589,7 +2571,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="26"/>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="28" t="s">
         <v>42</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -2608,7 +2590,7 @@
       </c>
       <c r="J7" s="26"/>
       <c r="K7" s="27" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -2756,7 +2738,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="26"/>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="28" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -2860,7 +2842,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="28" t="s">
         <v>46</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -2879,7 +2861,7 @@
       </c>
       <c r="J22" s="26"/>
       <c r="K22" s="27" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -2918,7 +2900,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="26"/>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="28" t="s">
         <v>47</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -3005,7 +2987,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="26"/>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="28" t="s">
         <v>48</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -3024,7 +3006,7 @@
       </c>
       <c r="J30" s="26"/>
       <c r="K30" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -3189,9 +3171,7 @@
         <v>25</v>
       </c>
       <c r="J39" s="26"/>
-      <c r="K39" s="25" t="s">
-        <v>69</v>
-      </c>
+      <c r="K39" s="28"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
@@ -3333,7 +3313,7 @@
       <c r="A48" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="28" t="s">
         <v>34</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -3355,7 +3335,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="26"/>
-      <c r="B49" s="25"/>
+      <c r="B49" s="28"/>
       <c r="C49" s="4" t="s">
         <v>8</v>
       </c>
@@ -3372,7 +3352,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="26"/>
-      <c r="B50" s="25"/>
+      <c r="B50" s="28"/>
       <c r="C50" s="4" t="s">
         <v>11</v>
       </c>
@@ -3389,7 +3369,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="26"/>
-      <c r="B51" s="25"/>
+      <c r="B51" s="28"/>
       <c r="C51" s="4" t="s">
         <v>12</v>
       </c>
@@ -3406,7 +3386,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="26"/>
-      <c r="B52" s="25"/>
+      <c r="B52" s="28"/>
       <c r="C52" s="4" t="s">
         <v>13</v>
       </c>
@@ -3423,7 +3403,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="26"/>
-      <c r="B53" s="25"/>
+      <c r="B53" s="28"/>
       <c r="C53" s="4" t="s">
         <v>14</v>
       </c>
@@ -3440,7 +3420,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="26"/>
-      <c r="B54" s="25"/>
+      <c r="B54" s="28"/>
       <c r="C54" s="7" t="s">
         <v>17</v>
       </c>
@@ -3457,7 +3437,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="26"/>
-      <c r="B55" s="25"/>
+      <c r="B55" s="28"/>
       <c r="C55" s="7" t="s">
         <v>18</v>
       </c>
@@ -3474,7 +3454,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="26"/>
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="28" t="s">
         <v>33</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -3492,9 +3472,7 @@
         <v>43</v>
       </c>
       <c r="J56" s="26"/>
-      <c r="K56" s="27" t="s">
-        <v>67</v>
-      </c>
+      <c r="K56" s="27"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="26"/>
@@ -3723,9 +3701,7 @@
         <v>41</v>
       </c>
       <c r="J69" s="26"/>
-      <c r="K69" s="27" t="s">
-        <v>77</v>
-      </c>
+      <c r="K69" s="27"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="26"/>
@@ -3945,7 +3921,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="26"/>
-      <c r="B82" s="25" t="s">
+      <c r="B82" s="28" t="s">
         <v>29</v>
       </c>
       <c r="C82" s="4" t="s">
@@ -3968,7 +3944,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="26"/>
-      <c r="B83" s="25"/>
+      <c r="B83" s="28"/>
       <c r="C83" s="4" t="s">
         <v>8</v>
       </c>
@@ -3986,7 +3962,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="26"/>
-      <c r="B84" s="25"/>
+      <c r="B84" s="28"/>
       <c r="C84" s="4" t="s">
         <v>11</v>
       </c>
@@ -4004,7 +3980,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="26"/>
-      <c r="B85" s="25"/>
+      <c r="B85" s="28"/>
       <c r="C85" s="4" t="s">
         <v>12</v>
       </c>
@@ -4022,7 +3998,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="26"/>
-      <c r="B86" s="25"/>
+      <c r="B86" s="28"/>
       <c r="C86" s="4" t="s">
         <v>13</v>
       </c>
@@ -4040,7 +4016,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="26"/>
-      <c r="B87" s="25"/>
+      <c r="B87" s="28"/>
       <c r="C87" s="4" t="s">
         <v>14</v>
       </c>
@@ -4058,7 +4034,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="26"/>
-      <c r="B88" s="25"/>
+      <c r="B88" s="28"/>
       <c r="C88" s="7" t="s">
         <v>17</v>
       </c>
@@ -4076,7 +4052,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="26"/>
-      <c r="B89" s="25"/>
+      <c r="B89" s="28"/>
       <c r="C89" s="7" t="s">
         <v>18</v>
       </c>
@@ -4094,7 +4070,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="26"/>
-      <c r="B90" s="25"/>
+      <c r="B90" s="28"/>
       <c r="C90" s="7" t="s">
         <v>20</v>
       </c>
@@ -4211,7 +4187,7 @@
     </row>
     <row r="97" spans="4:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D97" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F97" s="8" t="s">
         <v>63</v>
@@ -4229,6 +4205,37 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="A2:A33"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B56:B68"/>
+    <mergeCell ref="A34:A47"/>
+    <mergeCell ref="A48:A68"/>
+    <mergeCell ref="B69:B81"/>
+    <mergeCell ref="B82:B90"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="B48:B55"/>
+    <mergeCell ref="K2:K6"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="J7:J13"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="A69:A94"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="F7:F13"/>
+    <mergeCell ref="F14:F21"/>
+    <mergeCell ref="F22:F29"/>
+    <mergeCell ref="F30:F38"/>
+    <mergeCell ref="F39:F47"/>
+    <mergeCell ref="F48:F55"/>
+    <mergeCell ref="F56:F68"/>
+    <mergeCell ref="F69:F81"/>
+    <mergeCell ref="F82:F90"/>
+    <mergeCell ref="F91:F95"/>
     <mergeCell ref="K82:K95"/>
     <mergeCell ref="K7:K21"/>
     <mergeCell ref="J14:J21"/>
@@ -4245,39 +4252,8 @@
     <mergeCell ref="K39:K55"/>
     <mergeCell ref="K56:K68"/>
     <mergeCell ref="K69:K81"/>
-    <mergeCell ref="K2:K6"/>
-    <mergeCell ref="J2:J6"/>
-    <mergeCell ref="J7:J13"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="A69:A94"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="F7:F13"/>
-    <mergeCell ref="F14:F21"/>
-    <mergeCell ref="F22:F29"/>
-    <mergeCell ref="F30:F38"/>
-    <mergeCell ref="F39:F47"/>
-    <mergeCell ref="F48:F55"/>
-    <mergeCell ref="F56:F68"/>
-    <mergeCell ref="F69:F81"/>
-    <mergeCell ref="F82:F90"/>
-    <mergeCell ref="F91:F95"/>
-    <mergeCell ref="B56:B68"/>
-    <mergeCell ref="A34:A47"/>
-    <mergeCell ref="A48:A68"/>
-    <mergeCell ref="B69:B81"/>
-    <mergeCell ref="B82:B90"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="B39:B47"/>
-    <mergeCell ref="B48:B55"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="A2:A33"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B3:B4"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <printOptions gridLines="1" gridLinesSet="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4289,7 +4265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08EB2731-7B69-41E9-A60B-82E51E5B5F64}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -4312,7 +4288,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>57</v>
@@ -4338,7 +4314,7 @@
     </row>
     <row r="2" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>61</v>
@@ -4381,10 +4357,10 @@
     <row r="4" spans="1:11" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="24" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D4" s="5">
         <v>14.5</v>
@@ -4400,13 +4376,13 @@
     </row>
     <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>59</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D5" s="2">
         <v>23</v>
@@ -4424,7 +4400,7 @@
       <c r="A6" s="27"/>
       <c r="B6" s="27"/>
       <c r="C6" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D6" s="2">
         <v>66.25</v>
@@ -4439,7 +4415,7 @@
       <c r="A7" s="27"/>
       <c r="B7" s="27"/>
       <c r="C7" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2">
         <v>15.5</v>
@@ -4453,10 +4429,10 @@
     <row r="8" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D8" s="2">
         <v>3.5</v>
@@ -4473,10 +4449,10 @@
     <row r="9" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="24" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D9" s="5">
         <v>21.75</v>
@@ -4493,10 +4469,10 @@
     <row r="10" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="24" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D10" s="5">
         <v>14.5</v>
@@ -4512,11 +4488,11 @@
     </row>
     <row r="11" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
-      <c r="B11" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>145</v>
+      <c r="B11" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>139</v>
       </c>
       <c r="D11" s="2">
         <v>4.5</v>
@@ -4537,7 +4513,7 @@
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="A5:A11"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4563,249 +4539,249 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>111</v>
+      <c r="A4" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>105</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="34"/>
-      <c r="B5" s="30"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="21" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
       <c r="F5" s="21" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
     </row>
     <row r="6" spans="1:9" ht="51.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="35"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="13" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>101</v>
+        <v>96</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>95</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
@@ -4814,188 +4790,188 @@
       <c r="G10" s="19"/>
       <c r="H10" s="18"/>
       <c r="I10" s="19" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="32"/>
+        <v>93</v>
+      </c>
+      <c r="B11" s="33"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="17" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="15" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="13" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="15" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" s="15" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="11" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -5004,7 +4980,7 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A4:A6"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
